--- a/SchedulingData/dynamic14/pso/scheduling2_13.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,648 +462,648 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>254.74</v>
+        <v>234.06</v>
       </c>
       <c r="D2" t="n">
-        <v>307.12</v>
+        <v>289.16</v>
       </c>
       <c r="E2" t="n">
-        <v>12.468</v>
+        <v>14.104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>236.46</v>
+        <v>231.02</v>
       </c>
       <c r="D3" t="n">
-        <v>294.68</v>
+        <v>285.86</v>
       </c>
       <c r="E3" t="n">
-        <v>11.672</v>
+        <v>11.104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>307.12</v>
+        <v>268.28</v>
       </c>
       <c r="D4" t="n">
-        <v>398.84</v>
+        <v>315.82</v>
       </c>
       <c r="E4" t="n">
-        <v>7.876</v>
+        <v>13.588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>294.68</v>
+        <v>289.16</v>
       </c>
       <c r="D5" t="n">
-        <v>356.76</v>
+        <v>341.56</v>
       </c>
       <c r="E5" t="n">
-        <v>8.064</v>
+        <v>11.464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>356.76</v>
+        <v>231.16</v>
       </c>
       <c r="D6" t="n">
-        <v>402.92</v>
+        <v>286.16</v>
       </c>
       <c r="E6" t="n">
-        <v>5.088</v>
+        <v>12.024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>398.84</v>
+        <v>286.16</v>
       </c>
       <c r="D7" t="n">
-        <v>458.58</v>
+        <v>362.76</v>
       </c>
       <c r="E7" t="n">
-        <v>4.012</v>
+        <v>7.944</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>243.66</v>
+        <v>362.76</v>
       </c>
       <c r="D8" t="n">
-        <v>335.76</v>
+        <v>399.96</v>
       </c>
       <c r="E8" t="n">
-        <v>10.524</v>
+        <v>4.864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>335.76</v>
+        <v>285.86</v>
       </c>
       <c r="D9" t="n">
-        <v>409.46</v>
+        <v>352.88</v>
       </c>
       <c r="E9" t="n">
-        <v>7.244</v>
+        <v>6.512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>226.7</v>
+        <v>399.96</v>
       </c>
       <c r="D10" t="n">
-        <v>282.94</v>
+        <v>472.86</v>
       </c>
       <c r="E10" t="n">
-        <v>13.376</v>
+        <v>1.704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>256.32</v>
+        <v>472.86</v>
       </c>
       <c r="D11" t="n">
-        <v>294.82</v>
+        <v>580.75</v>
       </c>
       <c r="E11" t="n">
-        <v>12.188</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>458.58</v>
+        <v>222.42</v>
       </c>
       <c r="D12" t="n">
-        <v>508.78</v>
+        <v>281.32</v>
       </c>
       <c r="E12" t="n">
-        <v>1.592</v>
+        <v>14.868</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>508.78</v>
+        <v>315.82</v>
       </c>
       <c r="D13" t="n">
-        <v>606.9</v>
+        <v>360.02</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>10.308</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>402.92</v>
+        <v>580.75</v>
       </c>
       <c r="D14" t="n">
-        <v>441.58</v>
+        <v>618.71</v>
       </c>
       <c r="E14" t="n">
-        <v>2.352</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>294.82</v>
+        <v>360.02</v>
       </c>
       <c r="D15" t="n">
-        <v>343.32</v>
+        <v>420.88</v>
       </c>
       <c r="E15" t="n">
-        <v>8.468</v>
+        <v>7.332</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>441.58</v>
+        <v>352.88</v>
       </c>
       <c r="D16" t="n">
-        <v>489.98</v>
+        <v>398.18</v>
       </c>
       <c r="E16" t="n">
-        <v>0.112</v>
+        <v>4.112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>489.98</v>
+        <v>618.71</v>
       </c>
       <c r="D17" t="n">
-        <v>601.0599999999999</v>
+        <v>661.73</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>24.232</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>282.94</v>
+        <v>281.32</v>
       </c>
       <c r="D18" t="n">
-        <v>322.32</v>
+        <v>329.62</v>
       </c>
       <c r="E18" t="n">
-        <v>10.568</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>343.32</v>
+        <v>420.88</v>
       </c>
       <c r="D19" t="n">
-        <v>418.1</v>
+        <v>476.76</v>
       </c>
       <c r="E19" t="n">
-        <v>4.1</v>
+        <v>4.364</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>322.32</v>
+        <v>213.62</v>
       </c>
       <c r="D20" t="n">
-        <v>403.16</v>
+        <v>270.8</v>
       </c>
       <c r="E20" t="n">
-        <v>6.564</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>418.1</v>
+        <v>661.73</v>
       </c>
       <c r="D21" t="n">
-        <v>459.38</v>
+        <v>720.71</v>
       </c>
       <c r="E21" t="n">
-        <v>1.592</v>
+        <v>21.424</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>459.38</v>
+        <v>329.62</v>
       </c>
       <c r="D22" t="n">
-        <v>533.1</v>
+        <v>371.1</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>228</v>
+        <v>398.18</v>
       </c>
       <c r="D23" t="n">
-        <v>288.3</v>
+        <v>456.12</v>
       </c>
       <c r="E23" t="n">
-        <v>11.84</v>
+        <v>1.408</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>533.1</v>
+        <v>456.12</v>
       </c>
       <c r="D24" t="n">
-        <v>594.74</v>
+        <v>530.1</v>
       </c>
       <c r="E24" t="n">
-        <v>26.516</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>594.74</v>
+        <v>371.1</v>
       </c>
       <c r="D25" t="n">
-        <v>667.6799999999999</v>
+        <v>417.26</v>
       </c>
       <c r="E25" t="n">
-        <v>23.812</v>
+        <v>5.664</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>409.46</v>
+        <v>417.26</v>
       </c>
       <c r="D26" t="n">
-        <v>452.1</v>
+        <v>516.38</v>
       </c>
       <c r="E26" t="n">
-        <v>4.12</v>
+        <v>1.352</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>667.6799999999999</v>
+        <v>516.38</v>
       </c>
       <c r="D27" t="n">
-        <v>730.62</v>
+        <v>615.1799999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>21.108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>288.3</v>
+        <v>615.1799999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>360</v>
+        <v>680.6799999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>7.76</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>360</v>
+        <v>270.8</v>
       </c>
       <c r="D29" t="n">
-        <v>410.16</v>
+        <v>335.78</v>
       </c>
       <c r="E29" t="n">
-        <v>5.384</v>
+        <v>7.712</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>601.0599999999999</v>
+        <v>341.56</v>
       </c>
       <c r="D30" t="n">
-        <v>666.78</v>
+        <v>385.06</v>
       </c>
       <c r="E30" t="n">
-        <v>27.088</v>
+        <v>9.224</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>410.16</v>
+        <v>335.78</v>
       </c>
       <c r="D31" t="n">
-        <v>451.22</v>
+        <v>396.98</v>
       </c>
       <c r="E31" t="n">
-        <v>2.408</v>
+        <v>2.732</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>403.16</v>
+        <v>396.98</v>
       </c>
       <c r="D32" t="n">
-        <v>463.16</v>
+        <v>460.02</v>
       </c>
       <c r="E32" t="n">
-        <v>2.184</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>451.22</v>
+        <v>460.02</v>
       </c>
       <c r="D33" t="n">
-        <v>491.42</v>
+        <v>561.26</v>
       </c>
       <c r="E33" t="n">
-        <v>0.008</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>491.42</v>
+        <v>476.76</v>
       </c>
       <c r="D34" t="n">
-        <v>592.7</v>
+        <v>516.22</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>1.548</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>606.9</v>
+        <v>516.22</v>
       </c>
       <c r="D35" t="n">
-        <v>663.1799999999999</v>
+        <v>594.8200000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>27.032</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -1112,17 +1112,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>663.1799999999999</v>
+        <v>530.1</v>
       </c>
       <c r="D36" t="n">
-        <v>732.6</v>
+        <v>594.16</v>
       </c>
       <c r="E36" t="n">
-        <v>22.72</v>
+        <v>27.264</v>
       </c>
     </row>
     <row r="37">
@@ -1131,55 +1131,55 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>452.1</v>
+        <v>561.26</v>
       </c>
       <c r="D37" t="n">
-        <v>516.8</v>
+        <v>605.46</v>
       </c>
       <c r="E37" t="n">
-        <v>0.74</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>516.8</v>
+        <v>385.06</v>
       </c>
       <c r="D38" t="n">
-        <v>587.3200000000001</v>
+        <v>456.02</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>6.248</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>666.78</v>
+        <v>594.8200000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>706.74</v>
+        <v>655.54</v>
       </c>
       <c r="E39" t="n">
-        <v>24.712</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="40">
@@ -1188,55 +1188,112 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>587.3200000000001</v>
+        <v>605.46</v>
       </c>
       <c r="D40" t="n">
-        <v>655.66</v>
+        <v>675.02</v>
       </c>
       <c r="E40" t="n">
-        <v>27.296</v>
+        <v>23.904</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>592.7</v>
+        <v>594.16</v>
       </c>
       <c r="D41" t="n">
-        <v>655.7</v>
+        <v>648.58</v>
       </c>
       <c r="E41" t="n">
-        <v>27.36</v>
+        <v>22.952</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>655.7</v>
+        <v>456.02</v>
       </c>
       <c r="D42" t="n">
-        <v>702.7</v>
+        <v>515.4400000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>24.28</v>
+        <v>1.936</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>depot1</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>515.4400000000001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>607.97</v>
+      </c>
+      <c r="E43" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>pond10</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>607.97</v>
+      </c>
+      <c r="D44" t="n">
+        <v>673.13</v>
+      </c>
+      <c r="E44" t="n">
+        <v>27.624</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>pond33</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>673.13</v>
+      </c>
+      <c r="D45" t="n">
+        <v>721.47</v>
+      </c>
+      <c r="E45" t="n">
+        <v>24.92</v>
       </c>
     </row>
   </sheetData>
